--- a/data/probabilities data final/extracted/Max_Vals_Continuous.xlsx
+++ b/data/probabilities data final/extracted/Max_Vals_Continuous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadd\Documents\GitHub\quantum-cryptography\data\probabilities data final\extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\GitHub\quantum-cryptography\data\probabilities data final\extracted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE4819D-7F6A-48DA-B922-2610F195C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4555491-EE12-426A-B9E3-A40BB5105096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Max_Vals" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -962,23 +962,23 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" customWidth="1"/>
-    <col min="8" max="8" width="12.9296875" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
-    <col min="11" max="11" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1043,15 +1043,15 @@
         <f>AVERAGE(E1:E3)</f>
         <v>0.25272724636363547</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>AVERAGE(F1:F3)</f>
         <v>0.45388885194444367</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7">
         <f>H2/(H2+I2)</f>
         <v>0.35765848948073126</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2">
         <f>J2*SQRT(((H16/H2)^2)+(((H16*2)/(H2+I2))^2))</f>
         <v>8.6999384058779827E-2</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0.11519749775084598</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.13413269891414711</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>9.6125097587698313E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1189,7 @@
         <f t="shared" si="1"/>
         <v>0.36927162471599417</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5">
         <f>J5*SQRT(((H16/H5)^2)+(((H16*2)/(H5+I5))^2))</f>
         <v>9.0821947852258805E-2</v>
       </c>
@@ -1197,12 +1197,12 @@
         <f t="shared" si="0"/>
         <v>0.63072837528400583</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5">
         <f>L5*SQRT(((H16/I5)^2)+(((H16*2)/(I5+H5))^2))</f>
         <v>0.11760356099674968</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1243,12 +1243,12 @@
         <f t="shared" si="0"/>
         <v>0.59787090236607432</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6">
         <f>L6*SQRT(((H16/I6)^2)+(((H16*2)/(I6+H6))^2))</f>
         <v>0.11569033082158733</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>9.4490357098191327E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.13875571594836147</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <f t="shared" si="1"/>
         <v>0.41513813294926594</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9">
         <f>J9*SQRT(((H16/H9)^2)+(((H16*2)/(H9+I9))^2))</f>
         <v>9.9586397375468524E-2</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0.11791069318620855</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.4316666508333325</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.4316666508333325</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0.39833330916666587</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>3.1666664679999915E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0.79833328566666673</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0.38166665833333341</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
